--- a/biology/Médecine/Nidal_Malik_Hasan/Nidal_Malik_Hasan.xlsx
+++ b/biology/Médecine/Nidal_Malik_Hasan/Nidal_Malik_Hasan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nidal Malik Hasan, né le 8 septembre 1970 dans le comté d'Arlington, est un psychiatre de l'armée des États-Unis et officier du corps médical qui a abattu 13 personnes et blessé plus de 30 autres dans la fusillade de Fort Hood le 5 novembre 2009.
 </t>
@@ -511,7 +523,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hasan est né dans le comté d'Arlington, en Virginie, au Virginia Hospital Center de parents palestiniens qui ont immigré aux États-Unis d'al-Bireh en Cisjordanie. Élevé en tant que musulman avec ses deux jeunes frères, il a fréquenté le Wakefield High School à Arlington pour sa première année. Après que sa famille a déménagé à Roanoke en 1985, il a fréquenté l'école secondaire William Fleming de Roanoke, en Virginie. Il a obtenu son diplôme d'études secondaires en 1988. 
 </t>
@@ -542,7 +556,9 @@
           <t>Fusillade de Fort Hood</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jugé en cour martiale en août 2013, Hasan a reconnu les tirs et un jury de treize officiers l'a reconnu coupable de nombreux meurtres avec préméditation et de tentatives de meurtres. Le jury a également demandé officiellement qu'il soit démis de ses fonctions et soit condamné à la peine de mort. Hasan est incarcéré à Fort Leavenworth au Kansas en attente de son exécution, tandis que son cas est examiné par les tribunaux d'appel.
 Son comportement intriguait ses collègues qui le décrivaient comme « isolé socialement », avec des opinions « anti-américaines ». La fusillade est arrivée peu avant son déploiement en Afghanistan dans le cadre de la guerre d'Afghanistan. Musulman pratiquant, il est d'origine palestinienne par sa mère.
